--- a/Code/Results/Cases/Case_3_87/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_87/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001105624034092</v>
+        <v>1.024436122217634</v>
       </c>
       <c r="D2">
-        <v>1.018618345844242</v>
+        <v>1.030658426276773</v>
       </c>
       <c r="E2">
-        <v>1.007432363174655</v>
+        <v>1.024925770673861</v>
       </c>
       <c r="F2">
-        <v>0.9683772273716416</v>
+        <v>1.038684624685416</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042143150198167</v>
+        <v>1.034742927218476</v>
       </c>
       <c r="J2">
-        <v>1.023253316290917</v>
+        <v>1.029610747642374</v>
       </c>
       <c r="K2">
-        <v>1.029824250943917</v>
+        <v>1.033468799841401</v>
       </c>
       <c r="L2">
-        <v>1.018789115457424</v>
+        <v>1.027752842327732</v>
       </c>
       <c r="M2">
-        <v>0.9802954344114165</v>
+        <v>1.041471955892402</v>
       </c>
       <c r="N2">
-        <v>1.011695826286581</v>
+        <v>1.01391865233304</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004970525076458</v>
+        <v>1.025223130670642</v>
       </c>
       <c r="D3">
-        <v>1.021615217041283</v>
+        <v>1.031275793302497</v>
       </c>
       <c r="E3">
-        <v>1.010469275839784</v>
+        <v>1.025589532947276</v>
       </c>
       <c r="F3">
-        <v>0.9799685643515049</v>
+        <v>1.040867152547867</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04382281614819</v>
+        <v>1.035001303644934</v>
       </c>
       <c r="J3">
-        <v>1.02532659964068</v>
+        <v>1.030037502238619</v>
       </c>
       <c r="K3">
-        <v>1.031978800019412</v>
+        <v>1.033895080878977</v>
       </c>
       <c r="L3">
-        <v>1.020969930171301</v>
+        <v>1.028224189043853</v>
       </c>
       <c r="M3">
-        <v>0.9908643338708831</v>
+        <v>1.043460928340301</v>
       </c>
       <c r="N3">
-        <v>1.012389248045534</v>
+        <v>1.014060813111157</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007416538859491</v>
+        <v>1.025732602309017</v>
       </c>
       <c r="D4">
-        <v>1.023509976530023</v>
+        <v>1.031675256021964</v>
       </c>
       <c r="E4">
-        <v>1.012396456297529</v>
+        <v>1.026019616043011</v>
       </c>
       <c r="F4">
-        <v>0.9871453764245705</v>
+        <v>1.042273965448634</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044865289314361</v>
+        <v>1.035166857675854</v>
       </c>
       <c r="J4">
-        <v>1.02663241283876</v>
+        <v>1.030313200750431</v>
       </c>
       <c r="K4">
-        <v>1.033332701392688</v>
+        <v>1.034170206978339</v>
       </c>
       <c r="L4">
-        <v>1.022347534348474</v>
+        <v>1.028529084917112</v>
       </c>
       <c r="M4">
-        <v>0.997401461954078</v>
+        <v>1.044742166789552</v>
       </c>
       <c r="N4">
-        <v>1.01282595616141</v>
+        <v>1.014152627259865</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008432296126097</v>
+        <v>1.02594683753615</v>
       </c>
       <c r="D5">
-        <v>1.024296409100832</v>
+        <v>1.031843186370521</v>
       </c>
       <c r="E5">
-        <v>1.013197983042604</v>
+        <v>1.026200562195709</v>
       </c>
       <c r="F5">
-        <v>0.9900915534643653</v>
+        <v>1.042864121164281</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04529346062151</v>
+        <v>1.035236066978097</v>
       </c>
       <c r="J5">
-        <v>1.027173210750188</v>
+        <v>1.03042899901916</v>
       </c>
       <c r="K5">
-        <v>1.033892703967676</v>
+        <v>1.034285701186481</v>
       </c>
       <c r="L5">
-        <v>1.022919014689486</v>
+        <v>1.028657239666248</v>
       </c>
       <c r="M5">
-        <v>1.000083410286957</v>
+        <v>1.045279449562982</v>
       </c>
       <c r="N5">
-        <v>1.013006807213126</v>
+        <v>1.014191184385633</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008602126399276</v>
+        <v>1.025982811689776</v>
       </c>
       <c r="D6">
-        <v>1.024427874704332</v>
+        <v>1.031871382387588</v>
       </c>
       <c r="E6">
-        <v>1.013332066401765</v>
+        <v>1.026230951993605</v>
       </c>
       <c r="F6">
-        <v>0.9905822416109731</v>
+        <v>1.042963137422625</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045364775632403</v>
+        <v>1.035247664714099</v>
       </c>
       <c r="J6">
-        <v>1.027263544825395</v>
+        <v>1.030448435878077</v>
       </c>
       <c r="K6">
-        <v>1.033986204986093</v>
+        <v>1.03430508328086</v>
       </c>
       <c r="L6">
-        <v>1.023014529153706</v>
+        <v>1.028678756027938</v>
       </c>
       <c r="M6">
-        <v>1.000529994011793</v>
+        <v>1.045369583383425</v>
       </c>
       <c r="N6">
-        <v>1.01303701562131</v>
+        <v>1.014197655859507</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007430160028307</v>
+        <v>1.025735464721528</v>
       </c>
       <c r="D7">
-        <v>1.023520524027855</v>
+        <v>1.031677499930639</v>
       </c>
       <c r="E7">
-        <v>1.012407199845155</v>
+        <v>1.026022033308269</v>
       </c>
       <c r="F7">
-        <v>0.9871850142461414</v>
+        <v>1.042281856084327</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044871049517889</v>
+        <v>1.035167783983312</v>
       </c>
       <c r="J7">
-        <v>1.026639670607468</v>
+        <v>1.03031474846669</v>
       </c>
       <c r="K7">
-        <v>1.033340219671</v>
+        <v>1.034171750880603</v>
       </c>
       <c r="L7">
-        <v>1.022355200160498</v>
+        <v>1.028530797419756</v>
       </c>
       <c r="M7">
-        <v>0.9974375513611076</v>
+        <v>1.044749351257081</v>
       </c>
       <c r="N7">
-        <v>1.012828383313614</v>
+        <v>1.014153142625358</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002423506729644</v>
+        <v>1.024702048678381</v>
       </c>
       <c r="D8">
-        <v>1.019640673735884</v>
+        <v>1.030867071365438</v>
       </c>
       <c r="E8">
-        <v>1.008466813593506</v>
+        <v>1.025149970789172</v>
       </c>
       <c r="F8">
-        <v>0.9723657822896828</v>
+        <v>1.039423363106285</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042720338637766</v>
+        <v>1.034830585603</v>
       </c>
       <c r="J8">
-        <v>1.023961641023338</v>
+        <v>1.02975506252535</v>
       </c>
       <c r="K8">
-        <v>1.03056101282448</v>
+        <v>1.03361300991539</v>
       </c>
       <c r="L8">
-        <v>1.019533305016149</v>
+        <v>1.027912156084555</v>
       </c>
       <c r="M8">
-        <v>0.9839335607125356</v>
+        <v>1.042145348613205</v>
       </c>
       <c r="N8">
-        <v>1.011932733698822</v>
+        <v>1.013966732114564</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9931517706745018</v>
+        <v>1.02288277375731</v>
       </c>
       <c r="D9">
-        <v>1.012437372639302</v>
+        <v>1.029438883694142</v>
       </c>
       <c r="E9">
-        <v>1.001211855656975</v>
+        <v>1.023617792242078</v>
       </c>
       <c r="F9">
-        <v>0.9434234861530931</v>
+        <v>1.034343344500414</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038562003202099</v>
+        <v>1.034223834714504</v>
       </c>
       <c r="J9">
-        <v>1.018948697063015</v>
+        <v>1.02876545072028</v>
       </c>
       <c r="K9">
-        <v>1.025331834313603</v>
+        <v>1.032623014284017</v>
       </c>
       <c r="L9">
-        <v>1.014285301899534</v>
+        <v>1.026821298596753</v>
       </c>
       <c r="M9">
-        <v>0.9575064049325609</v>
+        <v>1.037511335988925</v>
       </c>
       <c r="N9">
-        <v>1.010256115102607</v>
+        <v>1.013636926146568</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9866207027662797</v>
+        <v>1.021671109521123</v>
       </c>
       <c r="D10">
-        <v>1.007344772070213</v>
+        <v>1.028486689260114</v>
       </c>
       <c r="E10">
-        <v>0.9961309213032047</v>
+        <v>1.022599408113143</v>
       </c>
       <c r="F10">
-        <v>0.9216108449593063</v>
+        <v>1.030925770501917</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035493040921418</v>
+        <v>1.033810801195839</v>
       </c>
       <c r="J10">
-        <v>1.01537539465307</v>
+        <v>1.028103435332792</v>
       </c>
       <c r="K10">
-        <v>1.021582668697113</v>
+        <v>1.031959348551822</v>
       </c>
       <c r="L10">
-        <v>1.010570386325474</v>
+        <v>1.026093578748841</v>
       </c>
       <c r="M10">
-        <v>0.9375560034703661</v>
+        <v>1.034389597206827</v>
       </c>
       <c r="N10">
-        <v>1.009061197827876</v>
+        <v>1.013416163744083</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.98369637199561</v>
+        <v>1.021146729445341</v>
       </c>
       <c r="D11">
-        <v>1.005058021304822</v>
+        <v>1.028074361602587</v>
       </c>
       <c r="E11">
-        <v>0.9938629886755473</v>
+        <v>1.022159171388318</v>
       </c>
       <c r="F11">
-        <v>0.9113789905582329</v>
+        <v>1.02943814729716</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034079137409277</v>
+        <v>1.033629909320283</v>
       </c>
       <c r="J11">
-        <v>1.013763489394556</v>
+        <v>1.027816233632652</v>
       </c>
       <c r="K11">
-        <v>1.019885177003673</v>
+        <v>1.031671097658915</v>
       </c>
       <c r="L11">
-        <v>1.008901575542368</v>
+        <v>1.025778355184925</v>
       </c>
       <c r="M11">
-        <v>0.9281909022229794</v>
+        <v>1.03302974841749</v>
       </c>
       <c r="N11">
-        <v>1.008522288237345</v>
+        <v>1.013320359393315</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9825942602830814</v>
+        <v>1.020951993282463</v>
       </c>
       <c r="D12">
-        <v>1.004194965672118</v>
+        <v>1.027921201399793</v>
       </c>
       <c r="E12">
-        <v>0.9930093180185117</v>
+        <v>1.021995758084274</v>
       </c>
       <c r="F12">
-        <v>0.907438439686641</v>
+        <v>1.028884368371682</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033539535812618</v>
+        <v>1.033562408883147</v>
       </c>
       <c r="J12">
-        <v>1.013153976935673</v>
+        <v>1.027709472007467</v>
       </c>
       <c r="K12">
-        <v>1.01924223565753</v>
+        <v>1.0315638957116</v>
       </c>
       <c r="L12">
-        <v>1.008271685256451</v>
+        <v>1.025661249701516</v>
       </c>
       <c r="M12">
-        <v>0.9245832742131762</v>
+        <v>1.032523384548017</v>
       </c>
       <c r="N12">
-        <v>1.008318533166569</v>
+        <v>1.013284741366874</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9828314117771008</v>
+        <v>1.020993762951065</v>
       </c>
       <c r="D13">
-        <v>1.004380737965145</v>
+        <v>1.027954054938022</v>
       </c>
       <c r="E13">
-        <v>0.9931929625424246</v>
+        <v>1.022030805797532</v>
       </c>
       <c r="F13">
-        <v>0.9082904532724716</v>
+        <v>1.029003211191982</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0336559655819</v>
+        <v>1.033576901974782</v>
       </c>
       <c r="J13">
-        <v>1.013285227162185</v>
+        <v>1.027732376459911</v>
       </c>
       <c r="K13">
-        <v>1.019380734861666</v>
+        <v>1.031586896910129</v>
       </c>
       <c r="L13">
-        <v>1.008407270382287</v>
+        <v>1.025686370013301</v>
       </c>
       <c r="M13">
-        <v>0.9253633416124728</v>
+        <v>1.032632058718683</v>
       </c>
       <c r="N13">
-        <v>1.008362407863238</v>
+        <v>1.013292383004681</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9836056043807139</v>
+        <v>1.021130631637237</v>
       </c>
       <c r="D14">
-        <v>1.004986968652595</v>
+        <v>1.028061701401948</v>
       </c>
       <c r="E14">
-        <v>0.9937926607042494</v>
+        <v>1.022145661342484</v>
       </c>
       <c r="F14">
-        <v>0.9110562670252637</v>
+        <v>1.029392396657937</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034034838864592</v>
+        <v>1.033624336030077</v>
       </c>
       <c r="J14">
-        <v>1.013713333883944</v>
+        <v>1.027807410360574</v>
       </c>
       <c r="K14">
-        <v>1.019832293171458</v>
+        <v>1.031662239023984</v>
       </c>
       <c r="L14">
-        <v>1.008849719447063</v>
+        <v>1.0257686755644</v>
       </c>
       <c r="M14">
-        <v>0.9278954614029816</v>
+        <v>1.032987918045505</v>
       </c>
       <c r="N14">
-        <v>1.008505521133679</v>
+        <v>1.013317415849808</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9840804577980314</v>
+        <v>1.021214966512617</v>
       </c>
       <c r="D15">
-        <v>1.005358630742417</v>
+        <v>1.028128025491241</v>
       </c>
       <c r="E15">
-        <v>0.9941606266161239</v>
+        <v>1.022216442253541</v>
       </c>
       <c r="F15">
-        <v>0.9127410715625894</v>
+        <v>1.029632025231492</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034266308728812</v>
+        <v>1.033653520698141</v>
       </c>
       <c r="J15">
-        <v>1.013975639980188</v>
+        <v>1.02785363033135</v>
       </c>
       <c r="K15">
-        <v>1.020108823820957</v>
+        <v>1.031708642179165</v>
       </c>
       <c r="L15">
-        <v>1.009120966308439</v>
+        <v>1.025819384423184</v>
       </c>
       <c r="M15">
-        <v>0.9294377994430187</v>
+        <v>1.033207007262775</v>
       </c>
       <c r="N15">
-        <v>1.008593211677479</v>
+        <v>1.013332835166366</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9868126372448062</v>
+        <v>1.021705916777247</v>
       </c>
       <c r="D16">
-        <v>1.007494704919491</v>
+        <v>1.028514053628916</v>
       </c>
       <c r="E16">
-        <v>0.9962799211846012</v>
+        <v>1.02262864060463</v>
       </c>
       <c r="F16">
-        <v>0.9222715958347136</v>
+        <v>1.031024331699396</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035584954889221</v>
+        <v>1.033822763141487</v>
       </c>
       <c r="J16">
-        <v>1.01548092398154</v>
+        <v>1.028122484463622</v>
       </c>
       <c r="K16">
-        <v>1.021693661823338</v>
+        <v>1.031978460236163</v>
       </c>
       <c r="L16">
-        <v>1.010679792909274</v>
+        <v>1.026114496655645</v>
       </c>
       <c r="M16">
-        <v>0.9381606533775212</v>
+        <v>1.03447967183252</v>
       </c>
       <c r="N16">
-        <v>1.009096482423549</v>
+        <v>1.013422517475691</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9884997588474679</v>
+        <v>1.022013951557583</v>
       </c>
       <c r="D17">
-        <v>1.008811868697963</v>
+        <v>1.028756193102047</v>
       </c>
       <c r="E17">
-        <v>0.9975904492757167</v>
+        <v>1.022887397626371</v>
       </c>
       <c r="F17">
-        <v>0.9280255717319913</v>
+        <v>1.031895575605389</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036388308271798</v>
+        <v>1.033928375518562</v>
       </c>
       <c r="J17">
-        <v>1.016407162321287</v>
+        <v>1.028290983534459</v>
       </c>
       <c r="K17">
-        <v>1.022667138079443</v>
+        <v>1.032147474137868</v>
       </c>
       <c r="L17">
-        <v>1.011640858959067</v>
+        <v>1.026299581711</v>
       </c>
       <c r="M17">
-        <v>0.9434253504518835</v>
+        <v>1.035275782603245</v>
       </c>
       <c r="N17">
-        <v>1.009406191339973</v>
+        <v>1.013478715815398</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9894746418260661</v>
+        <v>1.02219364990415</v>
       </c>
       <c r="D18">
-        <v>1.009572381317104</v>
+        <v>1.028897426930725</v>
       </c>
       <c r="E18">
-        <v>0.9983483935924096</v>
+        <v>1.023038396654319</v>
       </c>
       <c r="F18">
-        <v>0.9313075849552194</v>
+        <v>1.032403008367044</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036848816688016</v>
+        <v>1.033989780181886</v>
       </c>
       <c r="J18">
-        <v>1.016941267698933</v>
+        <v>1.028389213661352</v>
       </c>
       <c r="K18">
-        <v>1.023227903640077</v>
+        <v>1.03224597229772</v>
       </c>
       <c r="L18">
-        <v>1.012195696943927</v>
+        <v>1.026407527494406</v>
       </c>
       <c r="M18">
-        <v>0.9464276505795667</v>
+        <v>1.035739360017735</v>
       </c>
       <c r="N18">
-        <v>1.009584791885081</v>
+        <v>1.013511474831285</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9898055319064758</v>
+        <v>1.022254926950333</v>
       </c>
       <c r="D19">
-        <v>1.009830416345622</v>
+        <v>1.028945583676405</v>
       </c>
       <c r="E19">
-        <v>0.9986057652426451</v>
+        <v>1.023089895351847</v>
       </c>
       <c r="F19">
-        <v>0.9324146529084609</v>
+        <v>1.032575903938023</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037004512057429</v>
+        <v>1.034010684182126</v>
       </c>
       <c r="J19">
-        <v>1.01712236861173</v>
+        <v>1.028422698694295</v>
       </c>
       <c r="K19">
-        <v>1.023417949295436</v>
+        <v>1.032279543261378</v>
       </c>
       <c r="L19">
-        <v>1.012383935559879</v>
+        <v>1.026444332316235</v>
       </c>
       <c r="M19">
-        <v>0.9474402567525529</v>
+        <v>1.035897296632688</v>
       </c>
       <c r="N19">
-        <v>1.009645352130363</v>
+        <v>1.013522641329268</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9883197061654042</v>
+        <v>1.02198089956089</v>
       </c>
       <c r="D20">
-        <v>1.008671361885556</v>
+        <v>1.028730214039326</v>
       </c>
       <c r="E20">
-        <v>0.9974505176400759</v>
+        <v>1.022859628157862</v>
       </c>
       <c r="F20">
-        <v>0.9274160364375156</v>
+        <v>1.031802177138969</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036302961748751</v>
+        <v>1.033917064725456</v>
       </c>
       <c r="J20">
-        <v>1.0163084291649</v>
+        <v>1.028272910614445</v>
       </c>
       <c r="K20">
-        <v>1.022563430502067</v>
+        <v>1.032129349320518</v>
       </c>
       <c r="L20">
-        <v>1.011538345250645</v>
+        <v>1.026279724994333</v>
       </c>
       <c r="M20">
-        <v>0.9428677111033692</v>
+        <v>1.035190448446215</v>
       </c>
       <c r="N20">
-        <v>1.009373176550803</v>
+        <v>1.013472688388816</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9833780752982586</v>
+        <v>1.021090326061981</v>
       </c>
       <c r="D21">
-        <v>1.004808838615185</v>
+        <v>1.028030002295424</v>
       </c>
       <c r="E21">
-        <v>0.9936163851227254</v>
+        <v>1.022111836200842</v>
       </c>
       <c r="F21">
-        <v>0.9102458738514723</v>
+        <v>1.029277824940364</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033923683387926</v>
+        <v>1.033610376431575</v>
       </c>
       <c r="J21">
-        <v>1.013587574537788</v>
+        <v>1.027785317016599</v>
       </c>
       <c r="K21">
-        <v>1.0196996752278</v>
+        <v>1.031640056318608</v>
       </c>
       <c r="L21">
-        <v>1.008719714763564</v>
+        <v>1.025744439111754</v>
       </c>
       <c r="M21">
-        <v>0.9271535643615877</v>
+        <v>1.032883161294978</v>
       </c>
       <c r="N21">
-        <v>1.008463479898314</v>
+        <v>1.013310045185402</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.980178228810946</v>
+        <v>1.02053062986555</v>
       </c>
       <c r="D22">
-        <v>1.002300354481126</v>
+        <v>1.027589731874261</v>
       </c>
       <c r="E22">
-        <v>0.9911398468942242</v>
+        <v>1.02164230762229</v>
       </c>
       <c r="F22">
-        <v>0.8986245801485693</v>
+        <v>1.027683647367668</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032343172818282</v>
+        <v>1.033415759809929</v>
       </c>
       <c r="J22">
-        <v>1.011813763939142</v>
+        <v>1.027478272244911</v>
       </c>
       <c r="K22">
-        <v>1.017826378225084</v>
+        <v>1.031331650105365</v>
       </c>
       <c r="L22">
-        <v>1.006888892495806</v>
+        <v>1.025407782856335</v>
       </c>
       <c r="M22">
-        <v>0.9165126011682063</v>
+        <v>1.031425196042087</v>
       </c>
       <c r="N22">
-        <v>1.007870563014839</v>
+        <v>1.013207599626071</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9818838845539413</v>
+        <v>1.020827312377478</v>
       </c>
       <c r="D23">
-        <v>1.003638288399084</v>
+        <v>1.027823129470303</v>
       </c>
       <c r="E23">
-        <v>0.9924593738686084</v>
+        <v>1.021891152982038</v>
       </c>
       <c r="F23">
-        <v>0.9048725406024837</v>
+        <v>1.028529429371392</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03318971723805</v>
+        <v>1.033519100003903</v>
       </c>
       <c r="J23">
-        <v>1.012760504741377</v>
+        <v>1.02764108764916</v>
       </c>
       <c r="K23">
-        <v>1.018826863821098</v>
+        <v>1.031495215119332</v>
       </c>
       <c r="L23">
-        <v>1.007865393177205</v>
+        <v>1.025586260259089</v>
       </c>
       <c r="M23">
-        <v>0.9222339286196766</v>
+        <v>1.032198793547896</v>
       </c>
       <c r="N23">
-        <v>1.008187006224375</v>
+        <v>1.013261925543643</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9884010925089589</v>
+        <v>1.02199583425291</v>
       </c>
       <c r="D24">
-        <v>1.008734874766917</v>
+        <v>1.028741952866127</v>
       </c>
       <c r="E24">
-        <v>0.9975137666234942</v>
+        <v>1.022872175768113</v>
       </c>
       <c r="F24">
-        <v>0.9276916868701423</v>
+        <v>1.031844382198761</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036341551000824</v>
+        <v>1.033922176195565</v>
       </c>
       <c r="J24">
-        <v>1.016353061368056</v>
+        <v>1.028281077151618</v>
       </c>
       <c r="K24">
-        <v>1.022610313175246</v>
+        <v>1.032137539407527</v>
       </c>
       <c r="L24">
-        <v>1.011584684437263</v>
+        <v>1.026288697424751</v>
       </c>
       <c r="M24">
-        <v>0.9431198945919976</v>
+        <v>1.035229009689034</v>
       </c>
       <c r="N24">
-        <v>1.009388100814779</v>
+        <v>1.013475411986946</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.995606487172025</v>
+        <v>1.023352892192624</v>
       </c>
       <c r="D25">
-        <v>1.014347109656333</v>
+        <v>1.029808116818084</v>
       </c>
       <c r="E25">
-        <v>1.003127608909801</v>
+        <v>1.024013359006737</v>
       </c>
       <c r="F25">
-        <v>0.9512965691966482</v>
+        <v>1.03566194853988</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039685181228963</v>
+        <v>1.03438219194674</v>
       </c>
       <c r="J25">
-        <v>1.020282620634257</v>
+        <v>1.029021689405222</v>
       </c>
       <c r="K25">
-        <v>1.026726714199606</v>
+        <v>1.03287959672488</v>
       </c>
       <c r="L25">
-        <v>1.015677566025556</v>
+        <v>1.027103396987384</v>
       </c>
       <c r="M25">
-        <v>0.9647011248643174</v>
+        <v>1.038714911743198</v>
       </c>
       <c r="N25">
-        <v>1.010702241152196</v>
+        <v>1.013722346065132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_87/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_87/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.024436122217634</v>
+        <v>1.001105624034091</v>
       </c>
       <c r="D2">
-        <v>1.030658426276773</v>
+        <v>1.018618345844242</v>
       </c>
       <c r="E2">
-        <v>1.024925770673861</v>
+        <v>1.007432363174655</v>
       </c>
       <c r="F2">
-        <v>1.038684624685416</v>
+        <v>0.9683772273716414</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034742927218476</v>
+        <v>1.042143150198167</v>
       </c>
       <c r="J2">
-        <v>1.029610747642374</v>
+        <v>1.023253316290916</v>
       </c>
       <c r="K2">
-        <v>1.033468799841401</v>
+        <v>1.029824250943917</v>
       </c>
       <c r="L2">
-        <v>1.027752842327732</v>
+        <v>1.018789115457424</v>
       </c>
       <c r="M2">
-        <v>1.041471955892402</v>
+        <v>0.9802954344114164</v>
       </c>
       <c r="N2">
-        <v>1.01391865233304</v>
+        <v>1.011695826286581</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025223130670642</v>
+        <v>1.004970525076457</v>
       </c>
       <c r="D3">
-        <v>1.031275793302497</v>
+        <v>1.021615217041283</v>
       </c>
       <c r="E3">
-        <v>1.025589532947276</v>
+        <v>1.010469275839783</v>
       </c>
       <c r="F3">
-        <v>1.040867152547867</v>
+        <v>0.9799685643515048</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035001303644934</v>
+        <v>1.04382281614819</v>
       </c>
       <c r="J3">
-        <v>1.030037502238619</v>
+        <v>1.025326599640679</v>
       </c>
       <c r="K3">
-        <v>1.033895080878977</v>
+        <v>1.031978800019411</v>
       </c>
       <c r="L3">
-        <v>1.028224189043853</v>
+        <v>1.0209699301713</v>
       </c>
       <c r="M3">
-        <v>1.043460928340301</v>
+        <v>0.9908643338708827</v>
       </c>
       <c r="N3">
-        <v>1.014060813111157</v>
+        <v>1.012389248045534</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025732602309017</v>
+        <v>1.007416538859491</v>
       </c>
       <c r="D4">
-        <v>1.031675256021964</v>
+        <v>1.023509976530023</v>
       </c>
       <c r="E4">
-        <v>1.026019616043011</v>
+        <v>1.012396456297529</v>
       </c>
       <c r="F4">
-        <v>1.042273965448634</v>
+        <v>0.9871453764245709</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035166857675854</v>
+        <v>1.044865289314361</v>
       </c>
       <c r="J4">
-        <v>1.030313200750431</v>
+        <v>1.02663241283876</v>
       </c>
       <c r="K4">
-        <v>1.034170206978339</v>
+        <v>1.033332701392688</v>
       </c>
       <c r="L4">
-        <v>1.028529084917112</v>
+        <v>1.022347534348474</v>
       </c>
       <c r="M4">
-        <v>1.044742166789552</v>
+        <v>0.9974014619540784</v>
       </c>
       <c r="N4">
-        <v>1.014152627259865</v>
+        <v>1.01282595616141</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02594683753615</v>
+        <v>1.008432296126098</v>
       </c>
       <c r="D5">
-        <v>1.031843186370521</v>
+        <v>1.024296409100832</v>
       </c>
       <c r="E5">
-        <v>1.026200562195709</v>
+        <v>1.013197983042604</v>
       </c>
       <c r="F5">
-        <v>1.042864121164281</v>
+        <v>0.9900915534643654</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035236066978097</v>
+        <v>1.04529346062151</v>
       </c>
       <c r="J5">
-        <v>1.03042899901916</v>
+        <v>1.027173210750188</v>
       </c>
       <c r="K5">
-        <v>1.034285701186481</v>
+        <v>1.033892703967676</v>
       </c>
       <c r="L5">
-        <v>1.028657239666248</v>
+        <v>1.022919014689486</v>
       </c>
       <c r="M5">
-        <v>1.045279449562982</v>
+        <v>1.000083410286957</v>
       </c>
       <c r="N5">
-        <v>1.014191184385633</v>
+        <v>1.013006807213126</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025982811689776</v>
+        <v>1.008602126399275</v>
       </c>
       <c r="D6">
-        <v>1.031871382387588</v>
+        <v>1.024427874704332</v>
       </c>
       <c r="E6">
-        <v>1.026230951993605</v>
+        <v>1.013332066401764</v>
       </c>
       <c r="F6">
-        <v>1.042963137422625</v>
+        <v>0.9905822416109719</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035247664714099</v>
+        <v>1.045364775632403</v>
       </c>
       <c r="J6">
-        <v>1.030448435878077</v>
+        <v>1.027263544825395</v>
       </c>
       <c r="K6">
-        <v>1.03430508328086</v>
+        <v>1.033986204986093</v>
       </c>
       <c r="L6">
-        <v>1.028678756027938</v>
+        <v>1.023014529153705</v>
       </c>
       <c r="M6">
-        <v>1.045369583383425</v>
+        <v>1.000529994011792</v>
       </c>
       <c r="N6">
-        <v>1.014197655859507</v>
+        <v>1.01303701562131</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025735464721528</v>
+        <v>1.007430160028306</v>
       </c>
       <c r="D7">
-        <v>1.031677499930639</v>
+        <v>1.023520524027854</v>
       </c>
       <c r="E7">
-        <v>1.026022033308269</v>
+        <v>1.012407199845154</v>
       </c>
       <c r="F7">
-        <v>1.042281856084327</v>
+        <v>0.9871850142461402</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035167783983312</v>
+        <v>1.044871049517889</v>
       </c>
       <c r="J7">
-        <v>1.03031474846669</v>
+        <v>1.026639670607467</v>
       </c>
       <c r="K7">
-        <v>1.034171750880603</v>
+        <v>1.033340219670999</v>
       </c>
       <c r="L7">
-        <v>1.028530797419756</v>
+        <v>1.022355200160497</v>
       </c>
       <c r="M7">
-        <v>1.044749351257081</v>
+        <v>0.9974375513611068</v>
       </c>
       <c r="N7">
-        <v>1.014153142625358</v>
+        <v>1.012828383313614</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024702048678381</v>
+        <v>1.002423506729643</v>
       </c>
       <c r="D8">
-        <v>1.030867071365438</v>
+        <v>1.019640673735883</v>
       </c>
       <c r="E8">
-        <v>1.025149970789172</v>
+        <v>1.008466813593505</v>
       </c>
       <c r="F8">
-        <v>1.039423363106285</v>
+        <v>0.9723657822896825</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034830585603</v>
+        <v>1.042720338637766</v>
       </c>
       <c r="J8">
-        <v>1.02975506252535</v>
+        <v>1.023961641023338</v>
       </c>
       <c r="K8">
-        <v>1.03361300991539</v>
+        <v>1.03056101282448</v>
       </c>
       <c r="L8">
-        <v>1.027912156084555</v>
+        <v>1.019533305016148</v>
       </c>
       <c r="M8">
-        <v>1.042145348613205</v>
+        <v>0.9839335607125352</v>
       </c>
       <c r="N8">
-        <v>1.013966732114564</v>
+        <v>1.011932733698822</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02288277375731</v>
+        <v>0.9931517706745019</v>
       </c>
       <c r="D9">
-        <v>1.029438883694142</v>
+        <v>1.012437372639302</v>
       </c>
       <c r="E9">
-        <v>1.023617792242078</v>
+        <v>1.001211855656975</v>
       </c>
       <c r="F9">
-        <v>1.034343344500414</v>
+        <v>0.943423486153093</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034223834714504</v>
+        <v>1.038562003202099</v>
       </c>
       <c r="J9">
-        <v>1.02876545072028</v>
+        <v>1.018948697063015</v>
       </c>
       <c r="K9">
-        <v>1.032623014284017</v>
+        <v>1.025331834313602</v>
       </c>
       <c r="L9">
-        <v>1.026821298596753</v>
+        <v>1.014285301899534</v>
       </c>
       <c r="M9">
-        <v>1.037511335988925</v>
+        <v>0.9575064049325607</v>
       </c>
       <c r="N9">
-        <v>1.013636926146568</v>
+        <v>1.010256115102607</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021671109521123</v>
+        <v>0.9866207027662798</v>
       </c>
       <c r="D10">
-        <v>1.028486689260114</v>
+        <v>1.007344772070213</v>
       </c>
       <c r="E10">
-        <v>1.022599408113143</v>
+        <v>0.9961309213032048</v>
       </c>
       <c r="F10">
-        <v>1.030925770501917</v>
+        <v>0.9216108449593065</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033810801195839</v>
+        <v>1.035493040921418</v>
       </c>
       <c r="J10">
-        <v>1.028103435332792</v>
+        <v>1.01537539465307</v>
       </c>
       <c r="K10">
-        <v>1.031959348551822</v>
+        <v>1.021582668697113</v>
       </c>
       <c r="L10">
-        <v>1.026093578748841</v>
+        <v>1.010570386325474</v>
       </c>
       <c r="M10">
-        <v>1.034389597206827</v>
+        <v>0.9375560034703663</v>
       </c>
       <c r="N10">
-        <v>1.013416163744083</v>
+        <v>1.009061197827876</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021146729445341</v>
+        <v>0.9836963719956099</v>
       </c>
       <c r="D11">
-        <v>1.028074361602587</v>
+        <v>1.005058021304822</v>
       </c>
       <c r="E11">
-        <v>1.022159171388318</v>
+        <v>0.9938629886755469</v>
       </c>
       <c r="F11">
-        <v>1.02943814729716</v>
+        <v>0.9113789905582327</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033629909320283</v>
+        <v>1.034079137409277</v>
       </c>
       <c r="J11">
-        <v>1.027816233632652</v>
+        <v>1.013763489394556</v>
       </c>
       <c r="K11">
-        <v>1.031671097658915</v>
+        <v>1.019885177003673</v>
       </c>
       <c r="L11">
-        <v>1.025778355184925</v>
+        <v>1.008901575542368</v>
       </c>
       <c r="M11">
-        <v>1.03302974841749</v>
+        <v>0.9281909022229793</v>
       </c>
       <c r="N11">
-        <v>1.013320359393315</v>
+        <v>1.008522288237345</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020951993282463</v>
+        <v>0.9825942602830806</v>
       </c>
       <c r="D12">
-        <v>1.027921201399793</v>
+        <v>1.004194965672117</v>
       </c>
       <c r="E12">
-        <v>1.021995758084274</v>
+        <v>0.993009318018511</v>
       </c>
       <c r="F12">
-        <v>1.028884368371682</v>
+        <v>0.9074384396866417</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033562408883147</v>
+        <v>1.033539535812618</v>
       </c>
       <c r="J12">
-        <v>1.027709472007467</v>
+        <v>1.013153976935673</v>
       </c>
       <c r="K12">
-        <v>1.0315638957116</v>
+        <v>1.019242235657529</v>
       </c>
       <c r="L12">
-        <v>1.025661249701516</v>
+        <v>1.008271685256451</v>
       </c>
       <c r="M12">
-        <v>1.032523384548017</v>
+        <v>0.924583274213177</v>
       </c>
       <c r="N12">
-        <v>1.013284741366874</v>
+        <v>1.008318533166569</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020993762951065</v>
+        <v>0.9828314117771001</v>
       </c>
       <c r="D13">
-        <v>1.027954054938022</v>
+        <v>1.004380737965144</v>
       </c>
       <c r="E13">
-        <v>1.022030805797532</v>
+        <v>0.9931929625424241</v>
       </c>
       <c r="F13">
-        <v>1.029003211191982</v>
+        <v>0.9082904532724709</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033576901974782</v>
+        <v>1.0336559655819</v>
       </c>
       <c r="J13">
-        <v>1.027732376459911</v>
+        <v>1.013285227162184</v>
       </c>
       <c r="K13">
-        <v>1.031586896910129</v>
+        <v>1.019380734861665</v>
       </c>
       <c r="L13">
-        <v>1.025686370013301</v>
+        <v>1.008407270382286</v>
       </c>
       <c r="M13">
-        <v>1.032632058718683</v>
+        <v>0.9253633416124724</v>
       </c>
       <c r="N13">
-        <v>1.013292383004681</v>
+        <v>1.008362407863238</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021130631637237</v>
+        <v>0.9836056043807132</v>
       </c>
       <c r="D14">
-        <v>1.028061701401948</v>
+        <v>1.004986968652595</v>
       </c>
       <c r="E14">
-        <v>1.022145661342484</v>
+        <v>0.993792660704249</v>
       </c>
       <c r="F14">
-        <v>1.029392396657937</v>
+        <v>0.9110562670252632</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033624336030077</v>
+        <v>1.034034838864592</v>
       </c>
       <c r="J14">
-        <v>1.027807410360574</v>
+        <v>1.013713333883943</v>
       </c>
       <c r="K14">
-        <v>1.031662239023984</v>
+        <v>1.019832293171458</v>
       </c>
       <c r="L14">
-        <v>1.0257686755644</v>
+        <v>1.008849719447062</v>
       </c>
       <c r="M14">
-        <v>1.032987918045505</v>
+        <v>0.9278954614029813</v>
       </c>
       <c r="N14">
-        <v>1.013317415849808</v>
+        <v>1.008505521133679</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021214966512617</v>
+        <v>0.9840804577980308</v>
       </c>
       <c r="D15">
-        <v>1.028128025491241</v>
+        <v>1.005358630742416</v>
       </c>
       <c r="E15">
-        <v>1.022216442253541</v>
+        <v>0.9941606266161233</v>
       </c>
       <c r="F15">
-        <v>1.029632025231492</v>
+        <v>0.9127410715625884</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033653520698141</v>
+        <v>1.034266308728811</v>
       </c>
       <c r="J15">
-        <v>1.02785363033135</v>
+        <v>1.013975639980187</v>
       </c>
       <c r="K15">
-        <v>1.031708642179165</v>
+        <v>1.020108823820956</v>
       </c>
       <c r="L15">
-        <v>1.025819384423184</v>
+        <v>1.009120966308438</v>
       </c>
       <c r="M15">
-        <v>1.033207007262775</v>
+        <v>0.9294377994430176</v>
       </c>
       <c r="N15">
-        <v>1.013332835166366</v>
+        <v>1.008593211677479</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021705916777247</v>
+        <v>0.9868126372448059</v>
       </c>
       <c r="D16">
-        <v>1.028514053628916</v>
+        <v>1.007494704919491</v>
       </c>
       <c r="E16">
-        <v>1.02262864060463</v>
+        <v>0.9962799211846007</v>
       </c>
       <c r="F16">
-        <v>1.031024331699396</v>
+        <v>0.9222715958347134</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033822763141487</v>
+        <v>1.03558495488922</v>
       </c>
       <c r="J16">
-        <v>1.028122484463622</v>
+        <v>1.015480923981539</v>
       </c>
       <c r="K16">
-        <v>1.031978460236163</v>
+        <v>1.021693661823338</v>
       </c>
       <c r="L16">
-        <v>1.026114496655645</v>
+        <v>1.010679792909273</v>
       </c>
       <c r="M16">
-        <v>1.03447967183252</v>
+        <v>0.9381606533775209</v>
       </c>
       <c r="N16">
-        <v>1.013422517475691</v>
+        <v>1.009096482423549</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022013951557583</v>
+        <v>0.9884997588474677</v>
       </c>
       <c r="D17">
-        <v>1.028756193102047</v>
+        <v>1.008811868697963</v>
       </c>
       <c r="E17">
-        <v>1.022887397626371</v>
+        <v>0.9975904492757164</v>
       </c>
       <c r="F17">
-        <v>1.031895575605389</v>
+        <v>0.9280255717319909</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033928375518562</v>
+        <v>1.036388308271798</v>
       </c>
       <c r="J17">
-        <v>1.028290983534459</v>
+        <v>1.016407162321287</v>
       </c>
       <c r="K17">
-        <v>1.032147474137868</v>
+        <v>1.022667138079443</v>
       </c>
       <c r="L17">
-        <v>1.026299581711</v>
+        <v>1.011640858959066</v>
       </c>
       <c r="M17">
-        <v>1.035275782603245</v>
+        <v>0.9434253504518828</v>
       </c>
       <c r="N17">
-        <v>1.013478715815398</v>
+        <v>1.009406191339973</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02219364990415</v>
+        <v>0.9894746418260663</v>
       </c>
       <c r="D18">
-        <v>1.028897426930725</v>
+        <v>1.009572381317104</v>
       </c>
       <c r="E18">
-        <v>1.023038396654319</v>
+        <v>0.9983483935924097</v>
       </c>
       <c r="F18">
-        <v>1.032403008367044</v>
+        <v>0.9313075849552196</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033989780181886</v>
+        <v>1.036848816688016</v>
       </c>
       <c r="J18">
-        <v>1.028389213661352</v>
+        <v>1.016941267698933</v>
       </c>
       <c r="K18">
-        <v>1.03224597229772</v>
+        <v>1.023227903640077</v>
       </c>
       <c r="L18">
-        <v>1.026407527494406</v>
+        <v>1.012195696943927</v>
       </c>
       <c r="M18">
-        <v>1.035739360017735</v>
+        <v>0.9464276505795667</v>
       </c>
       <c r="N18">
-        <v>1.013511474831285</v>
+        <v>1.009584791885081</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022254926950333</v>
+        <v>0.989805531906475</v>
       </c>
       <c r="D19">
-        <v>1.028945583676405</v>
+        <v>1.009830416345621</v>
       </c>
       <c r="E19">
-        <v>1.023089895351847</v>
+        <v>0.9986057652426442</v>
       </c>
       <c r="F19">
-        <v>1.032575903938023</v>
+        <v>0.9324146529084596</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034010684182126</v>
+        <v>1.037004512057428</v>
       </c>
       <c r="J19">
-        <v>1.028422698694295</v>
+        <v>1.017122368611729</v>
       </c>
       <c r="K19">
-        <v>1.032279543261378</v>
+        <v>1.023417949295435</v>
       </c>
       <c r="L19">
-        <v>1.026444332316235</v>
+        <v>1.012383935559878</v>
       </c>
       <c r="M19">
-        <v>1.035897296632688</v>
+        <v>0.9474402567525515</v>
       </c>
       <c r="N19">
-        <v>1.013522641329268</v>
+        <v>1.009645352130363</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02198089956089</v>
+        <v>0.9883197061654044</v>
       </c>
       <c r="D20">
-        <v>1.028730214039326</v>
+        <v>1.008671361885556</v>
       </c>
       <c r="E20">
-        <v>1.022859628157862</v>
+        <v>0.9974505176400764</v>
       </c>
       <c r="F20">
-        <v>1.031802177138969</v>
+        <v>0.9274160364375166</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033917064725456</v>
+        <v>1.036302961748752</v>
       </c>
       <c r="J20">
-        <v>1.028272910614445</v>
+        <v>1.0163084291649</v>
       </c>
       <c r="K20">
-        <v>1.032129349320518</v>
+        <v>1.022563430502067</v>
       </c>
       <c r="L20">
-        <v>1.026279724994333</v>
+        <v>1.011538345250645</v>
       </c>
       <c r="M20">
-        <v>1.035190448446215</v>
+        <v>0.9428677111033705</v>
       </c>
       <c r="N20">
-        <v>1.013472688388816</v>
+        <v>1.009373176550804</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021090326061981</v>
+        <v>0.9833780752982583</v>
       </c>
       <c r="D21">
-        <v>1.028030002295424</v>
+        <v>1.004808838615185</v>
       </c>
       <c r="E21">
-        <v>1.022111836200842</v>
+        <v>0.9936163851227252</v>
       </c>
       <c r="F21">
-        <v>1.029277824940364</v>
+        <v>0.9102458738514725</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033610376431575</v>
+        <v>1.033923683387926</v>
       </c>
       <c r="J21">
-        <v>1.027785317016599</v>
+        <v>1.013587574537788</v>
       </c>
       <c r="K21">
-        <v>1.031640056318608</v>
+        <v>1.0196996752278</v>
       </c>
       <c r="L21">
-        <v>1.025744439111754</v>
+        <v>1.008719714763564</v>
       </c>
       <c r="M21">
-        <v>1.032883161294978</v>
+        <v>0.9271535643615877</v>
       </c>
       <c r="N21">
-        <v>1.013310045185402</v>
+        <v>1.008463479898314</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02053062986555</v>
+        <v>0.980178228810946</v>
       </c>
       <c r="D22">
-        <v>1.027589731874261</v>
+        <v>1.002300354481126</v>
       </c>
       <c r="E22">
-        <v>1.02164230762229</v>
+        <v>0.9911398468942241</v>
       </c>
       <c r="F22">
-        <v>1.027683647367668</v>
+        <v>0.8986245801485695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033415759809929</v>
+        <v>1.032343172818282</v>
       </c>
       <c r="J22">
-        <v>1.027478272244911</v>
+        <v>1.011813763939142</v>
       </c>
       <c r="K22">
-        <v>1.031331650105365</v>
+        <v>1.017826378225083</v>
       </c>
       <c r="L22">
-        <v>1.025407782856335</v>
+        <v>1.006888892495806</v>
       </c>
       <c r="M22">
-        <v>1.031425196042087</v>
+        <v>0.9165126011682067</v>
       </c>
       <c r="N22">
-        <v>1.013207599626071</v>
+        <v>1.007870563014839</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020827312377478</v>
+        <v>0.9818838845539402</v>
       </c>
       <c r="D23">
-        <v>1.027823129470303</v>
+        <v>1.003638288399083</v>
       </c>
       <c r="E23">
-        <v>1.021891152982038</v>
+        <v>0.9924593738686078</v>
       </c>
       <c r="F23">
-        <v>1.028529429371392</v>
+        <v>0.9048725406024816</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033519100003903</v>
+        <v>1.03318971723805</v>
       </c>
       <c r="J23">
-        <v>1.02764108764916</v>
+        <v>1.012760504741376</v>
       </c>
       <c r="K23">
-        <v>1.031495215119332</v>
+        <v>1.018826863821097</v>
       </c>
       <c r="L23">
-        <v>1.025586260259089</v>
+        <v>1.007865393177204</v>
       </c>
       <c r="M23">
-        <v>1.032198793547896</v>
+        <v>0.9222339286196745</v>
       </c>
       <c r="N23">
-        <v>1.013261925543643</v>
+        <v>1.008187006224375</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02199583425291</v>
+        <v>0.9884010925089594</v>
       </c>
       <c r="D24">
-        <v>1.028741952866127</v>
+        <v>1.008734874766917</v>
       </c>
       <c r="E24">
-        <v>1.022872175768113</v>
+        <v>0.9975137666234946</v>
       </c>
       <c r="F24">
-        <v>1.031844382198761</v>
+        <v>0.9276916868701421</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033922176195565</v>
+        <v>1.036341551000824</v>
       </c>
       <c r="J24">
-        <v>1.028281077151618</v>
+        <v>1.016353061368057</v>
       </c>
       <c r="K24">
-        <v>1.032137539407527</v>
+        <v>1.022610313175246</v>
       </c>
       <c r="L24">
-        <v>1.026288697424751</v>
+        <v>1.011584684437263</v>
       </c>
       <c r="M24">
-        <v>1.035229009689034</v>
+        <v>0.9431198945919972</v>
       </c>
       <c r="N24">
-        <v>1.013475411986946</v>
+        <v>1.009388100814779</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023352892192624</v>
+        <v>0.9956064871720244</v>
       </c>
       <c r="D25">
-        <v>1.029808116818084</v>
+        <v>1.014347109656332</v>
       </c>
       <c r="E25">
-        <v>1.024013359006737</v>
+        <v>1.0031276089098</v>
       </c>
       <c r="F25">
-        <v>1.03566194853988</v>
+        <v>0.951296569196648</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03438219194674</v>
+        <v>1.039685181228963</v>
       </c>
       <c r="J25">
-        <v>1.029021689405222</v>
+        <v>1.020282620634256</v>
       </c>
       <c r="K25">
-        <v>1.03287959672488</v>
+        <v>1.026726714199605</v>
       </c>
       <c r="L25">
-        <v>1.027103396987384</v>
+        <v>1.015677566025555</v>
       </c>
       <c r="M25">
-        <v>1.038714911743198</v>
+        <v>0.9647011248643168</v>
       </c>
       <c r="N25">
-        <v>1.013722346065132</v>
+        <v>1.010702241152195</v>
       </c>
     </row>
   </sheetData>
